--- a/v3/ZLHLZQR_V3_IO_20181123_02.xlsx
+++ b/v3/ZLHLZQR_V3_IO_20181123_02.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ZLHLZQR_A33\Doc\Soft_Doc\V3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17595" windowHeight="10650" tabRatio="784" activeTab="1"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <sheet name="S4-mcu1" sheetId="16" r:id="rId7"/>
     <sheet name="S5-mcu2" sheetId="17" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="568">
   <si>
     <t>PD0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2107,14 +2102,38 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶盖上下-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水满检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水桶盖开限位A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水桶盖开限位B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水桶盖关限位C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污水桶出限位E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2463,41 +2482,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2519,6 +2511,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2587,7 +2606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2622,7 +2641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2799,7 +2818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2816,7 +2835,7 @@
       <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="5.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="7" customWidth="1"/>
@@ -2828,7 +2847,7 @@
     <col min="9" max="9" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="27">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -2853,7 +2872,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -2876,7 +2895,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -2899,7 +2918,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -2922,7 +2941,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -2945,7 +2964,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -2968,7 +2987,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -2989,7 +3008,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28.5">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -3014,7 +3033,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -3039,7 +3058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -3064,7 +3083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="16">
         <v>10</v>
@@ -3083,7 +3102,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="16">
         <v>11</v>
@@ -3102,7 +3121,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -3125,7 +3144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -3148,7 +3167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -3169,7 +3188,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -3194,7 +3213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="28.5">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -3244,7 +3263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -3269,7 +3288,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="16">
         <v>12</v>
       </c>
@@ -3290,7 +3309,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="16">
         <v>20</v>
@@ -3309,7 +3328,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="16">
         <v>21</v>
@@ -3328,7 +3347,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="16">
         <v>13</v>
       </c>
@@ -3349,7 +3368,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="42.75">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -3374,7 +3393,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="40.5">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="40.5">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -3424,7 +3443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="27">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -3449,7 +3468,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="16">
         <v>18</v>
       </c>
@@ -3470,7 +3489,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="16">
         <v>19</v>
       </c>
@@ -3491,7 +3510,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="27">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -3518,7 +3537,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -3543,7 +3562,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -3570,7 +3589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="40.5">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -3597,7 +3616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="27">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -3622,7 +3641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="27">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -3647,7 +3666,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="27">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -3674,7 +3693,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="27">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -3701,7 +3720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -3724,7 +3743,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -3747,7 +3766,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -3770,7 +3789,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -3793,7 +3812,7 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -3816,7 +3835,7 @@
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -3839,7 +3858,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -3862,7 +3881,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -3885,7 +3904,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -3908,7 +3927,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -3931,7 +3950,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="27">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -3960,7 +3979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="27">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -3989,7 +4008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="16">
         <v>31</v>
       </c>
@@ -4010,7 +4029,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="16">
         <v>32</v>
       </c>
@@ -4031,7 +4050,7 @@
       <c r="H53" s="18"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="40.5">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -4058,7 +4077,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="40.5">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -4085,7 +4104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="27">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -4110,7 +4129,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -4135,7 +4154,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="27">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -4160,7 +4179,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="27">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -4185,7 +4204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="27">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -4208,7 +4227,7 @@
       </c>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -4231,7 +4250,7 @@
       </c>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="27">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -4254,7 +4273,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -4277,7 +4296,7 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -4300,7 +4319,7 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -4323,7 +4342,7 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -4350,7 +4369,7 @@
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -4377,7 +4396,7 @@
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -4402,7 +4421,7 @@
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -4427,7 +4446,7 @@
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="27">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -4452,7 +4471,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -4479,7 +4498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -4506,7 +4525,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="27">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -4533,7 +4552,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="27">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -4560,7 +4579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -4587,7 +4606,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -4604,7 +4623,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="16">
         <v>47</v>
       </c>
@@ -4625,7 +4644,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="16">
         <v>48</v>
       </c>
@@ -4646,7 +4665,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -4673,7 +4692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -4700,7 +4719,7 @@
       </c>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -4729,7 +4748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -4758,7 +4777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -4787,7 +4806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -4810,7 +4829,7 @@
       </c>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -4833,7 +4852,7 @@
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -4860,7 +4879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -4883,7 +4902,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -4906,7 +4925,7 @@
       </c>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -4929,7 +4948,7 @@
       </c>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -4952,7 +4971,7 @@
       </c>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -4975,7 +4994,7 @@
       </c>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="27">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -5002,7 +5021,7 @@
       </c>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="27">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -5029,7 +5048,7 @@
       </c>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="27">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -5054,7 +5073,7 @@
       </c>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -5081,7 +5100,7 @@
       </c>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -5108,7 +5127,7 @@
       </c>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -5129,7 +5148,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -5158,7 +5177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -5187,7 +5206,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -5210,7 +5229,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -5231,7 +5250,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="16">
         <v>63</v>
       </c>
@@ -5252,7 +5271,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="16">
         <v>64</v>
       </c>
@@ -5289,11 +5308,11 @@
   <dimension ref="A2:AE106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -5319,29 +5338,29 @@
     <col min="31" max="31" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I2" s="53" t="s">
+    <row r="2" spans="1:31" ht="21" customHeight="1">
+      <c r="I2" s="60" t="s">
         <v>555</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-    </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+    </row>
+    <row r="3" spans="1:31" ht="14.25" hidden="1">
       <c r="J3" s="22" t="s">
         <v>470</v>
       </c>
@@ -5375,108 +5394,108 @@
       </c>
       <c r="AA3" s="22"/>
     </row>
-    <row r="4" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:31" ht="23.25" customHeight="1">
+      <c r="A4" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="61" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="52" t="s">
         <v>313</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="52" t="s">
         <v>456</v>
       </c>
       <c r="J4" s="22"/>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="53" t="s">
         <v>561</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="52" t="s">
         <v>464</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="52" t="s">
         <v>466</v>
       </c>
       <c r="P4" s="38"/>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="52" t="s">
         <v>467</v>
       </c>
       <c r="S4" s="38"/>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="W4" s="63" t="s">
+      <c r="W4" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="X4" s="61" t="s">
+      <c r="X4" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="Y4" s="63" t="s">
+      <c r="Y4" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="Z4" s="61" t="s">
+      <c r="Z4" s="52" t="s">
         <v>471</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AE4" s="22"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="25"/>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="22"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="58"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="38"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="58"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="38"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="58"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="49"/>
       <c r="S5" s="38"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="58"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58" t="s">
+      <c r="T5" s="45"/>
+      <c r="U5" s="49"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>2</v>
@@ -5503,8 +5522,8 @@
       <c r="Q6" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="R6" s="52" t="s">
-        <v>531</v>
+      <c r="R6" s="47" t="s">
+        <v>564</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="8"/>
@@ -5516,7 +5535,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>3</v>
@@ -5547,8 +5566,8 @@
       <c r="Q7" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="R7" s="52" t="s">
-        <v>532</v>
+      <c r="R7" s="47" t="s">
+        <v>565</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="8"/>
@@ -5560,7 +5579,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>4</v>
@@ -5587,8 +5606,8 @@
       <c r="Q8" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="R8" s="52" t="s">
-        <v>376</v>
+      <c r="R8" s="47" t="s">
+        <v>563</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="8" t="s">
@@ -5604,7 +5623,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" s="25"/>
       <c r="B9" s="8">
         <v>5</v>
@@ -5643,7 +5662,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="14.25">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -5678,7 +5697,7 @@
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="14.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -5696,7 +5715,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="47" t="s">
         <v>60</v>
       </c>
       <c r="J11" s="22"/>
@@ -5715,7 +5734,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="14.25">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -5752,7 +5771,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="14.25">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -5789,7 +5808,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>10</v>
@@ -5822,7 +5841,7 @@
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="14.25">
       <c r="A15" s="25"/>
       <c r="B15" s="30">
         <v>11</v>
@@ -5855,7 +5874,7 @@
       <c r="Y15" s="31"/>
       <c r="Z15" s="31"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="14.25">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -5904,7 +5923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14.25">
       <c r="A17" s="8">
         <v>6</v>
       </c>
@@ -5953,7 +5972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14.25">
       <c r="A18" s="8">
         <v>7</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="8">
         <v>8</v>
       </c>
@@ -6031,7 +6050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26">
       <c r="A20" s="8">
         <v>9</v>
       </c>
@@ -6078,7 +6097,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="A21" s="8">
         <v>10</v>
       </c>
@@ -6117,7 +6136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26">
       <c r="A22" s="8">
         <v>11</v>
       </c>
@@ -6164,7 +6183,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="14.25">
       <c r="A23" s="30">
         <v>12</v>
       </c>
@@ -6199,7 +6218,7 @@
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>20</v>
@@ -6232,7 +6251,7 @@
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14.25">
       <c r="A25" s="25"/>
       <c r="B25" s="30">
         <v>21</v>
@@ -6265,7 +6284,7 @@
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="14.25">
       <c r="A26" s="30">
         <v>13</v>
       </c>
@@ -6300,7 +6319,7 @@
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26">
       <c r="A27" s="8">
         <v>14</v>
       </c>
@@ -6343,7 +6362,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26">
       <c r="A28" s="8">
         <v>15</v>
       </c>
@@ -6386,7 +6405,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26">
       <c r="A29" s="8">
         <v>16</v>
       </c>
@@ -6437,7 +6456,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" s="8">
         <v>17</v>
       </c>
@@ -6488,7 +6507,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="14.25">
       <c r="A31" s="30">
         <v>18</v>
       </c>
@@ -6523,7 +6542,7 @@
       <c r="Y31" s="31"/>
       <c r="Z31" s="31"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26">
       <c r="A32" s="30">
         <v>19</v>
       </c>
@@ -6558,7 +6577,7 @@
       <c r="Y32" s="31"/>
       <c r="Z32" s="31"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26">
       <c r="A33" s="8">
         <v>20</v>
       </c>
@@ -6587,7 +6606,7 @@
         <v>526</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="S33" s="38"/>
       <c r="T33" s="8" t="s">
@@ -6605,7 +6624,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26">
       <c r="A34" s="8">
         <v>21</v>
       </c>
@@ -6648,7 +6667,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26">
       <c r="A35" s="8">
         <v>22</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26">
       <c r="A36" s="8">
         <v>23</v>
       </c>
@@ -6742,7 +6761,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26">
       <c r="A37" s="8">
         <v>24</v>
       </c>
@@ -6789,7 +6808,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26">
       <c r="A38" s="8">
         <v>25</v>
       </c>
@@ -6836,7 +6855,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26">
       <c r="A39" s="8">
         <v>26</v>
       </c>
@@ -6883,7 +6902,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26">
       <c r="A40" s="8">
         <v>27</v>
       </c>
@@ -6908,16 +6927,16 @@
       <c r="M40" s="38"/>
       <c r="N40" s="8"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="49" t="s">
+      <c r="Q40" s="58" t="s">
         <v>521</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>377</v>
+        <v>562</v>
       </c>
       <c r="S40" s="38"/>
       <c r="T40" s="8"/>
       <c r="U40" s="3"/>
-      <c r="W40" s="49" t="s">
+      <c r="W40" s="58" t="s">
         <v>521</v>
       </c>
       <c r="X40" s="3" t="s">
@@ -6930,7 +6949,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26">
       <c r="A41" s="8">
         <v>28</v>
       </c>
@@ -6955,14 +6974,14 @@
       <c r="M41" s="38"/>
       <c r="N41" s="8"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="50"/>
+      <c r="Q41" s="59"/>
       <c r="R41" s="3" t="s">
         <v>378</v>
       </c>
       <c r="S41" s="38"/>
       <c r="T41" s="8"/>
       <c r="U41" s="3"/>
-      <c r="W41" s="50"/>
+      <c r="W41" s="59"/>
       <c r="X41" s="3" t="s">
         <v>394</v>
       </c>
@@ -6973,7 +6992,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>38</v>
@@ -6996,7 +7015,7 @@
       <c r="M42" s="38"/>
       <c r="N42" s="8"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="49" t="s">
+      <c r="Q42" s="58" t="s">
         <v>521</v>
       </c>
       <c r="R42" s="35" t="s">
@@ -7014,7 +7033,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>39</v>
@@ -7037,7 +7056,7 @@
       <c r="M43" s="38"/>
       <c r="N43" s="8"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="50"/>
+      <c r="Q43" s="59"/>
       <c r="R43" s="35" t="s">
         <v>380</v>
       </c>
@@ -7053,7 +7072,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>40</v>
@@ -7071,7 +7090,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="3"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="54" t="s">
+      <c r="K44" s="55" t="s">
         <v>508</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -7094,7 +7113,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>41</v>
@@ -7112,7 +7131,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="3"/>
       <c r="J45" s="22"/>
-      <c r="K45" s="55"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="3" t="s">
         <v>333</v>
       </c>
@@ -7133,7 +7152,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>42</v>
@@ -7151,7 +7170,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="3"/>
       <c r="J46" s="22"/>
-      <c r="K46" s="55"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="3" t="s">
         <v>321</v>
       </c>
@@ -7172,7 +7191,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>43</v>
@@ -7190,7 +7209,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="3"/>
       <c r="J47" s="22"/>
-      <c r="K47" s="56"/>
+      <c r="K47" s="57"/>
       <c r="L47" s="3" t="s">
         <v>322</v>
       </c>
@@ -7211,7 +7230,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>44</v>
@@ -7252,7 +7271,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>45</v>
@@ -7293,7 +7312,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26">
       <c r="A50" s="26"/>
       <c r="B50" s="8">
         <v>46</v>
@@ -7334,7 +7353,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26">
       <c r="A51" s="8">
         <v>29</v>
       </c>
@@ -7385,7 +7404,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26">
       <c r="A52" s="8">
         <v>30</v>
       </c>
@@ -7436,7 +7455,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26">
       <c r="A53" s="30">
         <v>31</v>
       </c>
@@ -7471,7 +7490,7 @@
       <c r="Y53" s="31"/>
       <c r="Z53" s="31"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26">
       <c r="A54" s="30">
         <v>32</v>
       </c>
@@ -7506,7 +7525,7 @@
       <c r="Y54" s="31"/>
       <c r="Z54" s="31"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26">
       <c r="A55" s="8">
         <v>33</v>
       </c>
@@ -7557,7 +7576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26">
       <c r="A56" s="8">
         <v>34</v>
       </c>
@@ -7608,7 +7627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26">
       <c r="A57" s="8">
         <v>35</v>
       </c>
@@ -7655,7 +7674,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26">
       <c r="A58" s="8">
         <v>36</v>
       </c>
@@ -7702,7 +7721,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>55</v>
@@ -7722,48 +7741,48 @@
       <c r="H59" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="46" t="s">
         <v>483</v>
       </c>
       <c r="J59" s="22"/>
       <c r="K59" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="L59" s="51" t="s">
+      <c r="L59" s="46" t="s">
         <v>485</v>
       </c>
       <c r="M59" s="38"/>
       <c r="N59" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="O59" s="51" t="s">
+      <c r="O59" s="46" t="s">
         <v>533</v>
       </c>
       <c r="Q59" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="R59" s="51" t="s">
+      <c r="R59" s="46" t="s">
         <v>533</v>
       </c>
       <c r="S59" s="38"/>
       <c r="T59" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="U59" s="51" t="s">
+      <c r="U59" s="46" t="s">
         <v>485</v>
       </c>
       <c r="W59" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="X59" s="51" t="s">
+      <c r="X59" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="Y59" s="51"/>
-      <c r="Z59" s="51" t="s">
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>56</v>
@@ -7783,48 +7802,48 @@
       <c r="H60" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="I60" s="51" t="s">
+      <c r="I60" s="46" t="s">
         <v>484</v>
       </c>
       <c r="J60" s="22"/>
       <c r="K60" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="L60" s="51" t="s">
+      <c r="L60" s="46" t="s">
         <v>486</v>
       </c>
       <c r="M60" s="38"/>
       <c r="N60" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="O60" s="51" t="s">
+      <c r="O60" s="46" t="s">
         <v>486</v>
       </c>
       <c r="Q60" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="R60" s="51" t="s">
+      <c r="R60" s="46" t="s">
         <v>486</v>
       </c>
       <c r="S60" s="38"/>
       <c r="T60" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="U60" s="51" t="s">
+      <c r="U60" s="46" t="s">
         <v>484</v>
       </c>
       <c r="W60" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="X60" s="51" t="s">
+      <c r="X60" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="51" t="s">
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>57</v>
@@ -7869,11 +7888,11 @@
       <c r="Y61" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="Z61" s="52" t="s">
+      <c r="Z61" s="47" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>58</v>
@@ -7922,7 +7941,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>59</v>
@@ -7971,7 +7990,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>60</v>
@@ -8016,7 +8035,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>61</v>
@@ -8057,7 +8076,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26">
       <c r="A66" s="26"/>
       <c r="B66" s="8">
         <v>62</v>
@@ -8098,7 +8117,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26">
       <c r="A67" s="8">
         <v>37</v>
       </c>
@@ -8138,14 +8157,14 @@
       <c r="X67" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="Y67" s="49" t="s">
+      <c r="Y67" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="Z67" s="52" t="s">
+      <c r="Z67" s="47" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26">
       <c r="A68" s="8">
         <v>38</v>
       </c>
@@ -8185,12 +8204,12 @@
       </c>
       <c r="W68" s="8"/>
       <c r="X68" s="3"/>
-      <c r="Y68" s="50"/>
-      <c r="Z68" s="52" t="s">
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="47" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26">
       <c r="A69" s="8">
         <v>39</v>
       </c>
@@ -8237,7 +8256,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26">
       <c r="A70" s="8">
         <v>40</v>
       </c>
@@ -8284,7 +8303,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26">
       <c r="A71" s="8">
         <v>41</v>
       </c>
@@ -8329,7 +8348,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26">
       <c r="A72" s="8">
         <v>42</v>
       </c>
@@ -8394,7 +8413,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26">
       <c r="A73" s="8">
         <v>43</v>
       </c>
@@ -8459,7 +8478,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26">
       <c r="A74" s="8">
         <v>44</v>
       </c>
@@ -8510,7 +8529,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26">
       <c r="A75" s="8">
         <v>45</v>
       </c>
@@ -8561,7 +8580,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26">
       <c r="A76" s="8">
         <v>46</v>
       </c>
@@ -8626,7 +8645,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26">
       <c r="A77" s="26"/>
       <c r="B77" s="8">
         <v>73</v>
@@ -8655,7 +8674,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26">
       <c r="A78" s="30">
         <v>47</v>
       </c>
@@ -8690,7 +8709,7 @@
       <c r="Y78" s="31"/>
       <c r="Z78" s="31"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26">
       <c r="A79" s="30">
         <v>48</v>
       </c>
@@ -8725,7 +8744,7 @@
       <c r="Y79" s="31"/>
       <c r="Z79" s="31"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26">
       <c r="A80" s="8">
         <v>49</v>
       </c>
@@ -8790,7 +8809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26">
       <c r="A81" s="8">
         <v>50</v>
       </c>
@@ -8818,8 +8837,8 @@
       <c r="Q81" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="R81" s="52" t="s">
-        <v>529</v>
+      <c r="R81" s="47" t="s">
+        <v>566</v>
       </c>
       <c r="S81" s="38"/>
       <c r="T81" s="8"/>
@@ -8833,7 +8852,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26">
       <c r="A82" s="8">
         <v>51</v>
       </c>
@@ -8860,7 +8879,7 @@
       <c r="K82" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="L82" s="51" t="s">
+      <c r="L82" s="46" t="s">
         <v>487</v>
       </c>
       <c r="M82" s="38"/>
@@ -8886,7 +8905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26">
       <c r="A83" s="8">
         <v>52</v>
       </c>
@@ -8913,7 +8932,7 @@
       <c r="K83" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="L83" s="51" t="s">
+      <c r="L83" s="46" t="s">
         <v>488</v>
       </c>
       <c r="M83" s="38"/>
@@ -8939,7 +8958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26">
       <c r="A84" s="8">
         <v>53</v>
       </c>
@@ -8964,7 +8983,7 @@
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="51" t="s">
+      <c r="L84" s="46" t="s">
         <v>489</v>
       </c>
       <c r="M84" s="38"/>
@@ -8992,7 +9011,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>81</v>
@@ -9029,7 +9048,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26">
       <c r="A86" s="26"/>
       <c r="B86" s="8">
         <v>82</v>
@@ -9066,7 +9085,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26">
       <c r="A87" s="8">
         <v>54</v>
       </c>
@@ -9119,7 +9138,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>84</v>
@@ -9156,7 +9175,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>85</v>
@@ -9193,7 +9212,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>86</v>
@@ -9238,7 +9257,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>87</v>
@@ -9283,7 +9302,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26">
       <c r="A92" s="26"/>
       <c r="B92" s="8">
         <v>88</v>
@@ -9320,7 +9339,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26">
       <c r="A93" s="8">
         <v>55</v>
       </c>
@@ -9359,7 +9378,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26">
       <c r="A94" s="8">
         <v>56</v>
       </c>
@@ -9402,7 +9421,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26">
       <c r="A95" s="8">
         <v>57</v>
       </c>
@@ -9443,7 +9462,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26">
       <c r="A96" s="8">
         <v>58</v>
       </c>
@@ -9482,7 +9501,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26">
       <c r="A97" s="8">
         <v>59</v>
       </c>
@@ -9521,7 +9540,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26">
       <c r="A98" s="8">
         <v>60</v>
       </c>
@@ -9558,7 +9577,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26">
       <c r="A99" s="8">
         <v>61</v>
       </c>
@@ -9625,7 +9644,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26">
       <c r="A100" s="8">
         <v>62</v>
       </c>
@@ -9692,7 +9711,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>97</v>
@@ -9733,7 +9752,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26">
       <c r="A102" s="26"/>
       <c r="B102" s="8">
         <v>98</v>
@@ -9774,7 +9793,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26">
       <c r="A103" s="30">
         <v>63</v>
       </c>
@@ -9809,7 +9828,7 @@
       <c r="Y103" s="31"/>
       <c r="Z103" s="31"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26">
       <c r="A104" s="30">
         <v>64</v>
       </c>
@@ -9844,7 +9863,7 @@
       <c r="Y104" s="31"/>
       <c r="Z104" s="31"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26">
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
       <c r="M105" s="38"/>
@@ -9852,18 +9871,18 @@
       <c r="S105" s="38"/>
       <c r="T105" s="38"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26">
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y67:Y68"/>
     <mergeCell ref="K44:K47"/>
     <mergeCell ref="Q40:Q41"/>
     <mergeCell ref="Q42:Q43"/>
     <mergeCell ref="W40:W41"/>
     <mergeCell ref="I2:Z2"/>
-    <mergeCell ref="Y67:Y68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9883,7 +9902,7 @@
       <selection activeCell="F4" sqref="F4:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -9892,7 +9911,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -9909,7 +9928,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -9926,7 +9945,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -9943,7 +9962,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -9960,7 +9979,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -9977,7 +9996,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -9994,7 +10013,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -10011,7 +10030,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -10030,7 +10049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -10049,7 +10068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -10068,7 +10087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30">
         <v>10</v>
@@ -10083,7 +10102,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>11</v>
@@ -10098,7 +10117,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -10117,7 +10136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -10136,7 +10155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -10153,7 +10172,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -10170,7 +10189,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -10187,7 +10206,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -10204,7 +10223,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -10221,7 +10240,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -10238,7 +10257,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30">
         <v>20</v>
@@ -10253,7 +10272,7 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>21</v>
@@ -10268,7 +10287,7 @@
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="30">
         <v>13</v>
       </c>
@@ -10285,7 +10304,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -10302,7 +10321,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -10319,7 +10338,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -10338,7 +10357,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -10357,7 +10376,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="30">
         <v>18</v>
       </c>
@@ -10374,7 +10393,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="30">
         <v>19</v>
       </c>
@@ -10391,7 +10410,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -10408,7 +10427,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -10425,7 +10444,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -10442,7 +10461,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -10459,7 +10478,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.25">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -10476,7 +10495,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -10493,7 +10512,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -10510,7 +10529,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -10527,7 +10546,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -10546,7 +10565,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -10563,7 +10582,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -10580,7 +10599,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -10597,7 +10616,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -10614,7 +10633,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -10631,7 +10650,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -10648,7 +10667,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -10665,7 +10684,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -10682,7 +10701,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -10699,7 +10718,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -10720,7 +10739,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -10741,7 +10760,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="30">
         <v>31</v>
       </c>
@@ -10758,7 +10777,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="30">
         <v>32</v>
       </c>
@@ -10775,7 +10794,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -10796,7 +10815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -10817,7 +10836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -10836,7 +10855,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -10855,7 +10874,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -10876,7 +10895,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -10897,7 +10916,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -10914,7 +10933,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -10931,7 +10950,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -10948,7 +10967,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -10965,7 +10984,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -10982,7 +11001,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -10999,7 +11018,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -11018,7 +11037,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -11037,7 +11056,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -11056,7 +11075,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -11075,7 +11094,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -11094,7 +11113,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -11117,7 +11136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -11140,7 +11159,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -11161,7 +11180,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -11182,7 +11201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -11205,7 +11224,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -11218,7 +11237,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="30">
         <v>47</v>
       </c>
@@ -11235,7 +11254,7 @@
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="30">
         <v>48</v>
       </c>
@@ -11252,7 +11271,7 @@
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -11275,7 +11294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -11294,7 +11313,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -11315,7 +11334,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -11336,7 +11355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -11357,7 +11376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -11374,7 +11393,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -11391,7 +11410,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -11412,7 +11431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -11429,7 +11448,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -11446,7 +11465,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -11463,7 +11482,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -11480,7 +11499,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -11497,7 +11516,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -11516,7 +11535,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -11535,7 +11554,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -11552,7 +11571,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -11571,7 +11590,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -11590,7 +11609,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -11607,7 +11626,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -11630,7 +11649,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -11653,7 +11672,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -11670,7 +11689,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -11687,7 +11706,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="30">
         <v>63</v>
       </c>
@@ -11704,7 +11723,7 @@
       <c r="F102" s="30"/>
       <c r="G102" s="31"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="30">
         <v>64</v>
       </c>
@@ -11740,7 +11759,7 @@
       <selection activeCell="F4" sqref="F4:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -11749,7 +11768,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -11766,7 +11785,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -11783,7 +11802,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -11800,7 +11819,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -11817,7 +11836,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -11834,7 +11853,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -11851,7 +11870,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -11868,7 +11887,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -11885,7 +11904,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -11902,7 +11921,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -11919,7 +11938,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30">
         <v>10</v>
@@ -11934,7 +11953,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>11</v>
@@ -11949,7 +11968,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -11968,7 +11987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -11987,7 +12006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -12004,7 +12023,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -12024,7 +12043,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.25">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -12041,7 +12060,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -12058,7 +12077,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.25">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -12075,7 +12094,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.25">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -12092,7 +12111,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30">
         <v>20</v>
@@ -12107,7 +12126,7 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>21</v>
@@ -12122,7 +12141,7 @@
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.25">
       <c r="A25" s="30">
         <v>13</v>
       </c>
@@ -12139,7 +12158,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -12160,7 +12179,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -12181,7 +12200,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.25">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -12200,7 +12219,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.25">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -12219,7 +12238,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.25">
       <c r="A30" s="30">
         <v>18</v>
       </c>
@@ -12236,7 +12255,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.25">
       <c r="A31" s="30">
         <v>19</v>
       </c>
@@ -12253,7 +12272,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.25">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -12270,7 +12289,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.25">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -12287,7 +12306,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -12307,7 +12326,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -12327,7 +12346,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -12347,7 +12366,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -12367,7 +12386,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -12387,7 +12406,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.25">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -12404,7 +12423,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.25">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -12423,7 +12442,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.25">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -12440,7 +12459,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.25">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -12457,7 +12476,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -12471,14 +12490,14 @@
       <c r="E43" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="61" t="s">
         <v>508</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -12492,12 +12511,12 @@
       <c r="E44" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="46"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -12511,12 +12530,12 @@
       <c r="E45" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="46"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -12530,12 +12549,12 @@
       <c r="E46" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -12556,7 +12575,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -12577,7 +12596,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -12598,7 +12617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.25">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -12619,7 +12638,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.25">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -12640,7 +12659,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.25">
       <c r="A52" s="30">
         <v>31</v>
       </c>
@@ -12657,7 +12676,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.25">
       <c r="A53" s="30">
         <v>32</v>
       </c>
@@ -12674,7 +12693,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.25">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -12695,7 +12714,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.25">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -12716,7 +12735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.25">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -12735,7 +12754,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.25">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -12754,7 +12773,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -12778,7 +12797,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -12802,7 +12821,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.25">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -12819,7 +12838,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.25">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -12836,7 +12855,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14.25">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -12853,7 +12872,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14.25">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -12870,7 +12889,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.25">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -12887,7 +12906,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.25">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -12904,7 +12923,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -12926,7 +12945,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.25">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -12945,7 +12964,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14.25">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -12964,7 +12983,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.25">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -12983,7 +13002,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.25">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -13002,7 +13021,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.25">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -13025,7 +13044,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="14.25">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -13048,7 +13067,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.25">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -13069,7 +13088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.25">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -13090,7 +13109,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.25">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -13113,7 +13132,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.25">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -13126,7 +13145,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.25">
       <c r="A77" s="30">
         <v>47</v>
       </c>
@@ -13143,7 +13162,7 @@
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.25">
       <c r="A78" s="30">
         <v>48</v>
       </c>
@@ -13160,7 +13179,7 @@
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.25">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -13183,7 +13202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.25">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -13202,7 +13221,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -13225,7 +13244,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -13248,7 +13267,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -13269,7 +13288,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -13286,7 +13305,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -13303,7 +13322,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -13324,7 +13343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -13341,7 +13360,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -13358,7 +13377,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.25">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -13375,7 +13394,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -13392,7 +13411,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -13409,7 +13428,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -13428,7 +13447,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -13451,7 +13470,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -13472,7 +13491,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -13491,7 +13510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -13510,7 +13529,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -13527,7 +13546,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -13550,7 +13569,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -13573,7 +13592,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -13594,7 +13613,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -13615,7 +13634,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="30">
         <v>63</v>
       </c>
@@ -13632,7 +13651,7 @@
       <c r="F102" s="30"/>
       <c r="G102" s="31"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="14.25">
       <c r="A103" s="30">
         <v>64</v>
       </c>
@@ -13671,7 +13690,7 @@
       <selection activeCell="F4" sqref="F4:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -13680,7 +13699,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -13697,7 +13716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -13714,7 +13733,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -13731,7 +13750,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -13752,7 +13771,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -13769,7 +13788,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -13790,7 +13809,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -13807,7 +13826,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -13824,7 +13843,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -13841,7 +13860,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -13858,7 +13877,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30">
         <v>10</v>
@@ -13873,7 +13892,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>11</v>
@@ -13888,7 +13907,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -13907,7 +13926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -13926,7 +13945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -13943,7 +13962,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -13960,7 +13979,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -13977,7 +13996,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -13994,7 +14013,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -14011,7 +14030,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -14028,7 +14047,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30">
         <v>20</v>
@@ -14043,7 +14062,7 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>21</v>
@@ -14058,7 +14077,7 @@
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="30">
         <v>13</v>
       </c>
@@ -14075,7 +14094,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -14092,7 +14111,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -14109,7 +14128,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -14128,7 +14147,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -14147,7 +14166,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="30">
         <v>18</v>
       </c>
@@ -14164,7 +14183,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="30">
         <v>19</v>
       </c>
@@ -14181,7 +14200,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -14198,7 +14217,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -14215,7 +14234,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -14232,7 +14251,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -14249,7 +14268,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.25">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -14266,7 +14285,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -14283,7 +14302,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -14300,7 +14319,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -14317,7 +14336,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -14336,7 +14355,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -14353,7 +14372,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -14370,7 +14389,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -14387,7 +14406,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -14404,7 +14423,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -14421,7 +14440,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -14438,7 +14457,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -14455,7 +14474,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -14472,7 +14491,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -14489,7 +14508,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -14510,7 +14529,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -14531,7 +14550,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="30">
         <v>31</v>
       </c>
@@ -14548,7 +14567,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="30">
         <v>32</v>
       </c>
@@ -14565,7 +14584,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -14586,7 +14605,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -14607,7 +14626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -14630,7 +14649,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -14653,7 +14672,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -14674,7 +14693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -14695,7 +14714,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -14712,7 +14731,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -14729,7 +14748,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -14746,7 +14765,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -14763,7 +14782,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -14780,7 +14799,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -14801,7 +14820,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -14820,7 +14839,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -14839,7 +14858,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -14858,7 +14877,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -14881,7 +14900,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -14904,7 +14923,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -14927,7 +14946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -14950,7 +14969,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -14971,7 +14990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -14992,7 +15011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -15015,7 +15034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.25">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -15028,7 +15047,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="30">
         <v>47</v>
       </c>
@@ -15045,7 +15064,7 @@
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="30">
         <v>48</v>
       </c>
@@ -15062,7 +15081,7 @@
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -15085,7 +15104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -15104,7 +15123,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -15125,7 +15144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -15146,7 +15165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -15167,7 +15186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -15184,7 +15203,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -15201,7 +15220,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -15222,7 +15241,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -15239,7 +15258,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -15256,7 +15275,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -15277,7 +15296,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -15294,7 +15313,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -15311,7 +15330,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -15330,7 +15349,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -15349,7 +15368,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -15366,7 +15385,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -15385,7 +15404,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -15404,7 +15423,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -15421,7 +15440,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -15444,7 +15463,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -15467,7 +15486,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -15484,7 +15503,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -15501,7 +15520,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="30">
         <v>63</v>
       </c>
@@ -15518,7 +15537,7 @@
       <c r="F102" s="30"/>
       <c r="G102" s="31"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="14.25">
       <c r="A103" s="30">
         <v>64</v>
       </c>
@@ -15554,7 +15573,7 @@
       <selection activeCell="F4" sqref="F4:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -15563,7 +15582,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -15580,7 +15599,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -15597,7 +15616,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -15618,7 +15637,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -15639,7 +15658,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -15660,7 +15679,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -15677,7 +15696,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -15694,7 +15713,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -15711,7 +15730,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -15728,7 +15747,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -15745,7 +15764,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30">
         <v>10</v>
@@ -15760,7 +15779,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>11</v>
@@ -15775,7 +15794,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -15794,7 +15813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -15813,7 +15832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -15830,7 +15849,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -15847,7 +15866,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -15868,7 +15887,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -15885,7 +15904,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -15906,7 +15925,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -15923,7 +15942,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30">
         <v>20</v>
@@ -15938,7 +15957,7 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>21</v>
@@ -15953,7 +15972,7 @@
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="30">
         <v>13</v>
       </c>
@@ -15970,7 +15989,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -15991,7 +16010,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -16008,7 +16027,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -16027,7 +16046,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -16046,7 +16065,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="30">
         <v>18</v>
       </c>
@@ -16063,7 +16082,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="30">
         <v>19</v>
       </c>
@@ -16080,7 +16099,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -16101,7 +16120,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -16118,7 +16137,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -16139,7 +16158,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -16156,7 +16175,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.25">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -16173,7 +16192,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -16190,7 +16209,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -16207,7 +16226,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -16221,14 +16240,14 @@
         <v>135</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="58" t="s">
         <v>521</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -16244,12 +16263,12 @@
       <c r="E40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="50"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -16263,14 +16282,14 @@
       <c r="E41" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="58" t="s">
         <v>521</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -16284,12 +16303,12 @@
       <c r="E42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="50"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -16306,7 +16325,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -16323,7 +16342,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -16340,7 +16359,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -16357,7 +16376,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -16374,7 +16393,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -16391,7 +16410,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -16408,7 +16427,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -16429,7 +16448,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -16450,7 +16469,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="30">
         <v>31</v>
       </c>
@@ -16467,7 +16486,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="30">
         <v>32</v>
       </c>
@@ -16484,7 +16503,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -16505,7 +16524,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -16526,7 +16545,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -16549,7 +16568,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -16572,7 +16591,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -16593,7 +16612,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -16614,7 +16633,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -16635,7 +16654,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -16656,7 +16675,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -16677,7 +16696,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -16698,7 +16717,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -16719,7 +16738,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -16736,7 +16755,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -16755,7 +16774,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -16778,7 +16797,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -16797,7 +16816,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -16816,7 +16835,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -16835,7 +16854,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -16858,7 +16877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -16881,7 +16900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -16902,7 +16921,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -16923,7 +16942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -16946,7 +16965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.25">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -16959,7 +16978,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="30">
         <v>47</v>
       </c>
@@ -16976,7 +16995,7 @@
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="30">
         <v>48</v>
       </c>
@@ -16993,7 +17012,7 @@
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -17016,7 +17035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -17039,7 +17058,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -17060,7 +17079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -17081,7 +17100,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -17102,7 +17121,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -17119,7 +17138,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -17136,7 +17155,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -17157,7 +17176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -17174,7 +17193,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -17191,7 +17210,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.25">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -17208,7 +17227,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -17229,7 +17248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -17246,7 +17265,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -17265,7 +17284,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -17284,7 +17303,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -17301,7 +17320,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -17320,7 +17339,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -17339,7 +17358,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -17356,7 +17375,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -17379,7 +17398,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -17402,7 +17421,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -17419,7 +17438,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -17436,7 +17455,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="30">
         <v>63</v>
       </c>
@@ -17453,7 +17472,7 @@
       <c r="F102" s="30"/>
       <c r="G102" s="31"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="30">
         <v>64</v>
       </c>
@@ -17493,7 +17512,7 @@
       <selection activeCell="F4" sqref="F4:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -17502,7 +17521,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -17519,7 +17538,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -17536,7 +17555,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -17553,7 +17572,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -17570,7 +17589,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -17591,7 +17610,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -17608,7 +17627,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -17625,7 +17644,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -17642,7 +17661,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -17659,7 +17678,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -17676,7 +17695,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30">
         <v>10</v>
@@ -17691,7 +17710,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>11</v>
@@ -17706,7 +17725,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -17725,7 +17744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -17744,7 +17763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -17761,7 +17780,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -17782,7 +17801,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -17799,7 +17818,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -17816,7 +17835,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -17833,7 +17852,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -17850,7 +17869,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30">
         <v>20</v>
@@ -17865,7 +17884,7 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>21</v>
@@ -17880,7 +17899,7 @@
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="30">
         <v>13</v>
       </c>
@@ -17897,7 +17916,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -17914,7 +17933,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -17931,7 +17950,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -17950,7 +17969,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -17969,7 +17988,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="30">
         <v>18</v>
       </c>
@@ -17986,7 +18005,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="30">
         <v>19</v>
       </c>
@@ -18003,7 +18022,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -18024,7 +18043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -18041,7 +18060,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -18062,7 +18081,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -18083,7 +18102,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -18104,7 +18123,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -18125,7 +18144,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -18146,7 +18165,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -18163,7 +18182,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -18182,7 +18201,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -18199,7 +18218,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -18216,7 +18235,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -18233,7 +18252,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -18250,7 +18269,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -18267,7 +18286,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -18284,7 +18303,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -18301,7 +18320,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -18318,7 +18337,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -18335,7 +18354,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -18356,7 +18375,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -18377,7 +18396,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="30">
         <v>31</v>
       </c>
@@ -18394,7 +18413,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="30">
         <v>32</v>
       </c>
@@ -18411,7 +18430,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -18432,7 +18451,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -18453,7 +18472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -18472,7 +18491,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -18491,7 +18510,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -18512,7 +18531,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -18533,7 +18552,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -18554,7 +18573,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -18575,7 +18594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -18596,7 +18615,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -18613,7 +18632,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -18630,7 +18649,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -18647,7 +18666,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -18670,7 +18689,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -18693,7 +18712,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -18716,7 +18735,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -18735,7 +18754,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -18756,7 +18775,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -18779,7 +18798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -18802,7 +18821,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -18823,7 +18842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -18844,7 +18863,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -18867,7 +18886,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.25">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -18880,7 +18899,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="30">
         <v>47</v>
       </c>
@@ -18897,7 +18916,7 @@
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="30">
         <v>48</v>
       </c>
@@ -18914,7 +18933,7 @@
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -18937,7 +18956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -18956,7 +18975,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -18977,7 +18996,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -18998,7 +19017,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -19019,7 +19038,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -19036,7 +19055,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -19053,7 +19072,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -19074,7 +19093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -19091,7 +19110,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -19108,7 +19127,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -19129,7 +19148,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -19150,7 +19169,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -19167,7 +19186,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -19186,7 +19205,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -19205,7 +19224,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -19222,7 +19241,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -19241,7 +19260,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -19260,7 +19279,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -19277,7 +19296,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -19300,7 +19319,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -19323,7 +19342,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -19340,7 +19359,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -19357,7 +19376,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="30">
         <v>63</v>
       </c>
@@ -19374,7 +19393,7 @@
       <c r="F102" s="30"/>
       <c r="G102" s="31"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="30">
         <v>64</v>
       </c>
@@ -19410,7 +19429,7 @@
       <selection activeCell="F4" sqref="F4:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
@@ -19419,7 +19438,7 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>314</v>
       </c>
@@ -19436,7 +19455,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="25"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -19453,7 +19472,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -19470,7 +19489,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="25"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -19487,7 +19506,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="25"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -19504,7 +19523,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="25"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -19521,7 +19540,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="30">
         <v>1</v>
       </c>
@@ -19540,7 +19559,7 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -19557,7 +19576,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -19574,7 +19593,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -19591,7 +19610,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30">
         <v>10</v>
@@ -19608,7 +19627,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30">
         <v>11</v>
@@ -19625,7 +19644,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -19644,7 +19663,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -19663,7 +19682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -19680,7 +19699,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -19697,7 +19716,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>9</v>
       </c>
@@ -19718,7 +19737,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="8">
         <v>10</v>
       </c>
@@ -19735,7 +19754,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -19756,7 +19775,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -19775,7 +19794,7 @@
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="25"/>
       <c r="B23" s="30">
         <v>20</v>
@@ -19792,7 +19811,7 @@
       </c>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="25"/>
       <c r="B24" s="30">
         <v>21</v>
@@ -19809,7 +19828,7 @@
       </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="30">
         <v>13</v>
       </c>
@@ -19828,7 +19847,7 @@
       </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="8">
         <v>14</v>
       </c>
@@ -19845,7 +19864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="8">
         <v>15</v>
       </c>
@@ -19862,7 +19881,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="8">
         <v>16</v>
       </c>
@@ -19881,7 +19900,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="8">
         <v>17</v>
       </c>
@@ -19900,7 +19919,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="30">
         <v>18</v>
       </c>
@@ -19919,7 +19938,7 @@
       </c>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="30">
         <v>19</v>
       </c>
@@ -19938,7 +19957,7 @@
       </c>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -19955,7 +19974,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
         <v>21</v>
       </c>
@@ -19976,7 +19995,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="8">
         <v>22</v>
       </c>
@@ -19993,7 +20012,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="8">
         <v>23</v>
       </c>
@@ -20014,7 +20033,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="8">
         <v>24</v>
       </c>
@@ -20035,7 +20054,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="8">
         <v>25</v>
       </c>
@@ -20056,7 +20075,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="8">
         <v>26</v>
       </c>
@@ -20077,7 +20096,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="8">
         <v>27</v>
       </c>
@@ -20091,14 +20110,14 @@
         <v>135</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="58" t="s">
         <v>521</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -20114,12 +20133,12 @@
       <c r="E40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="50"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="26"/>
       <c r="B41" s="8">
         <v>38</v>
@@ -20136,7 +20155,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="26"/>
       <c r="B42" s="8">
         <v>39</v>
@@ -20153,7 +20172,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="26"/>
       <c r="B43" s="8">
         <v>40</v>
@@ -20170,7 +20189,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="26"/>
       <c r="B44" s="8">
         <v>41</v>
@@ -20187,7 +20206,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="26"/>
       <c r="B45" s="8">
         <v>42</v>
@@ -20204,7 +20223,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="26"/>
       <c r="B46" s="8">
         <v>43</v>
@@ -20221,7 +20240,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="26"/>
       <c r="B47" s="8">
         <v>44</v>
@@ -20238,7 +20257,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="26"/>
       <c r="B48" s="8">
         <v>45</v>
@@ -20255,7 +20274,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="26"/>
       <c r="B49" s="8">
         <v>46</v>
@@ -20272,7 +20291,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="8">
         <v>29</v>
       </c>
@@ -20293,7 +20312,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="8">
         <v>30</v>
       </c>
@@ -20314,7 +20333,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="30">
         <v>31</v>
       </c>
@@ -20333,7 +20352,7 @@
       </c>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="30">
         <v>32</v>
       </c>
@@ -20352,7 +20371,7 @@
       </c>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="8">
         <v>33</v>
       </c>
@@ -20373,7 +20392,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="8">
         <v>34</v>
       </c>
@@ -20394,7 +20413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="8">
         <v>35</v>
       </c>
@@ -20413,7 +20432,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="8">
         <v>36</v>
       </c>
@@ -20432,7 +20451,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="26"/>
       <c r="B58" s="8">
         <v>55</v>
@@ -20453,7 +20472,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="26"/>
       <c r="B59" s="8">
         <v>56</v>
@@ -20474,7 +20493,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="26"/>
       <c r="B60" s="8">
         <v>57</v>
@@ -20495,7 +20514,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="26"/>
       <c r="B61" s="8">
         <v>58</v>
@@ -20516,7 +20535,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="26"/>
       <c r="B62" s="8">
         <v>59</v>
@@ -20537,7 +20556,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="26"/>
       <c r="B63" s="8">
         <v>60</v>
@@ -20558,7 +20577,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="26"/>
       <c r="B64" s="8">
         <v>61</v>
@@ -20575,7 +20594,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="26"/>
       <c r="B65" s="8">
         <v>62</v>
@@ -20592,7 +20611,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="8">
         <v>37</v>
       </c>
@@ -20615,7 +20634,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="8">
         <v>38</v>
       </c>
@@ -20634,7 +20653,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="8">
         <v>39</v>
       </c>
@@ -20657,7 +20676,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="8">
         <v>40</v>
       </c>
@@ -20680,7 +20699,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="8">
         <v>41</v>
       </c>
@@ -20699,7 +20718,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="8">
         <v>42</v>
       </c>
@@ -20722,7 +20741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="8">
         <v>43</v>
       </c>
@@ -20745,7 +20764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="8">
         <v>44</v>
       </c>
@@ -20766,7 +20785,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="8">
         <v>45</v>
       </c>
@@ -20787,7 +20806,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="8">
         <v>46</v>
       </c>
@@ -20810,7 +20829,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.25">
       <c r="A76" s="26"/>
       <c r="B76" s="8">
         <v>73</v>
@@ -20823,7 +20842,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="30">
         <v>47</v>
       </c>
@@ -20842,7 +20861,7 @@
       </c>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="30">
         <v>48</v>
       </c>
@@ -20861,7 +20880,7 @@
       </c>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="8">
         <v>49</v>
       </c>
@@ -20884,7 +20903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="8">
         <v>50</v>
       </c>
@@ -20903,7 +20922,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="8">
         <v>51</v>
       </c>
@@ -20924,7 +20943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="8">
         <v>52</v>
       </c>
@@ -20945,7 +20964,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="8">
         <v>53</v>
       </c>
@@ -20966,7 +20985,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="26"/>
       <c r="B84" s="8">
         <v>81</v>
@@ -20983,7 +21002,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="26"/>
       <c r="B85" s="8">
         <v>82</v>
@@ -21000,7 +21019,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="8">
         <v>54</v>
       </c>
@@ -21021,7 +21040,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="26"/>
       <c r="B87" s="8">
         <v>84</v>
@@ -21038,7 +21057,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="26"/>
       <c r="B88" s="8">
         <v>85</v>
@@ -21055,7 +21074,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.25">
       <c r="A89" s="26"/>
       <c r="B89" s="8">
         <v>86</v>
@@ -21072,7 +21091,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="26"/>
       <c r="B90" s="8">
         <v>87</v>
@@ -21089,7 +21108,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="26"/>
       <c r="B91" s="8">
         <v>88</v>
@@ -21106,7 +21125,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="8">
         <v>55</v>
       </c>
@@ -21125,7 +21144,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="8">
         <v>56</v>
       </c>
@@ -21144,7 +21163,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="8">
         <v>57</v>
       </c>
@@ -21161,7 +21180,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="8">
         <v>58</v>
       </c>
@@ -21180,7 +21199,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.25">
       <c r="A96" s="8">
         <v>59</v>
       </c>
@@ -21199,7 +21218,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="8">
         <v>60</v>
       </c>
@@ -21216,7 +21235,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="8">
         <v>61</v>
       </c>
@@ -21239,7 +21258,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="8">
         <v>62</v>
       </c>
@@ -21262,7 +21281,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="26"/>
       <c r="B100" s="8">
         <v>97</v>
@@ -21279,7 +21298,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="26"/>
       <c r="B101" s="8">
         <v>98</v>
@@ -21296,7 +21315,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="30">
         <v>63</v>
       </c>
@@ -21315,7 +21334,7 @@
       </c>
       <c r="G102" s="31"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="30">
         <v>64</v>
       </c>
